--- a/forwardprimer-v3_19.xlsx
+++ b/forwardprimer-v3_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_19" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1729-CTGCATGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCATGAAGTCGTCGGCAGCGTC</t>
+    <t>F1729-CATCTGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1730-CTACAGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGTCTTTCGTCGGCAGCGTC</t>
+    <t>F1730-CTAGGAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGAACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1731-TAGAGAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGAGCACTCGTCGGCAGCGTC</t>
+    <t>F1731-AGTGAACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1732-ACAGGTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGTGACTTCGTCGGCAGCGTC</t>
+    <t>F1732-TAGCTGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1733-AACAACTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACTGTCTCGTCGGCAGCGTC</t>
+    <t>F1733-TGAGACTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1734-TTGCATCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCATCACTTCGTCGGCAGCGTC</t>
+    <t>F1734-AGAGTGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1735-GGTTCAACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCAACTGTCGTCGGCAGCGTC</t>
+    <t>F1735-CTCAAGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1736-CCAACGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAACGTCTTTCGTCGGCAGCGTC</t>
+    <t>F1736-GGTACAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1737-GAGGATCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGATCTCTTCGTCGGCAGCGTC</t>
+    <t>F1737-AGACCTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACCTCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1738-ACCATCTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATCTGACTCGTCGGCAGCGTC</t>
+    <t>F1738-GACAACTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAACTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1739-TCTCTGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGCTCATCGTCGGCAGCGTC</t>
+    <t>F1739-TTCTCTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCTGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1740-CTGTCGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTCGAGATTCGTCGGCAGCGTC</t>
+    <t>F1740-ACACAAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1741-TGTAGTCTGG</t>
+    <t>F1741-CTGTTCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F1742-ATCCTTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F1743-CTTCTGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTGATGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F1744-AGGAACCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F1745-CTGAACTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAACTACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F1746-AGTCGACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGACTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F1747-AACGTGTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F1748-TAGAGATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGATCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F1749-TCAGGTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F1750-TGTGGACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGACGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F1751-ACCAACCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAACCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F1752-CAGTTCCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F1753-GCTACTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F1754-AAGTGTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F1755-CATCCACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCACTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F1756-TTCTGAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F1757-TCTACCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACCATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F1758-AACTCTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F1759-GACAGTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGTACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F1760-AAGTGACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGACACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F1761-GTCATCCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F1762-CTAGGACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F1763-AAGTTGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F1764-ACATCTGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCTGGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F1765-AACAAGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F1766-ACAGAGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F1767-GAGCTTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTTGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F1768-GTACGTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGTCCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F1769-GTCTACTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACTCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F1770-CCAAGATCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGATCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F1771-TGAAGCTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGCTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1772-GTCACAACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F1773-CAACTCGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F1774-GAACTCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTCTAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F1775-TGTAGTCTGG</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGTAGTCTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F1742-TTGGAGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F1743-ATCCAAGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCAAGGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F1744-AAGGTCACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F1745-GTACATCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACATCACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F1746-CAGTCAACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCAACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F1747-CAGTAGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F1748-CTGGTTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTTCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F1749-CAAGCTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F1750-AGTGGATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGATCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F1751-ACTGACGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGACGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F1752-TTCGAGTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGTTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F1753-TCGAAGACGA</t>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F1776-CAAGGTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGTCGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1777-GACTCGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTCGACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1778-CTACGAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1779-AGTGCTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1780-TGAGGTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGTGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1781-GACTACAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTACAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1782-TTCCTCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1783-AGTAGGATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGATGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1784-TCTGTCGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1785-CCTACGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACGTTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1786-CCTTCAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCAGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1787-TACAGTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1788-TTGGTCCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1789-TGAGTTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTTCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1790-CAGTACTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACTGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1791-TAGCAGTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGTAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1792-CTTCATCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCATCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1793-TGACCTTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F1794-ACTCTCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1795-CTCAAGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F1796-AACGTCTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCTGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F1797-ATGTAGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTAGTGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F1798-TGAGCTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F1799-GACCTTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F1800-ACCAGTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGTAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1801-ACGTGCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTGCTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F1802-GACACTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACTACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F1803-ATGGTTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F1804-AGAAGCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F1805-AAGACATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACATGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F1806-TGACCAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F1807-ATGTTCTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTTCTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F1808-GTTGGACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGACAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F1809-TTGCAAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAAGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F1810-ACTGATGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGATGAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F1811-ACCTGAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGAAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F1812-ATCAGAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F1813-GATGTCGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1814-AACGAGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAGAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F1815-CTTCAGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGTGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F1816-ACTCCAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCAACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F1817-TGGAGTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGTGGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F1818-TTCTAGCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTAGCTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F1819-TCGAGGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGGATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F1820-AGTGAGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>F1821-TCGAAGACGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCGAAGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F1754-AAGTAGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F1755-TTGAGAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGAAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F1756-AGACCAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCAACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F1757-TTGACAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACAGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F1758-CCAAGATGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGATGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F1759-GGTCAACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAACGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F1760-AAGCAAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAAGCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F1761-CATCATCCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCATCCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F1762-ACAAGTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTCGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F1763-TGTGTTGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTTGTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F1764-GGAGCAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGCAAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F1765-CTCTGTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGTGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F1766-CTTCAACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAACCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F1767-AGAACTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F1768-TGGAACCATC</t>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>F1822-CTAGTCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>F1823-TGGAACCATC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGGAACCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F1769-AGAGAACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F1770-ACCACATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACATGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F1771-ACCACTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACTGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F1772-CACAGTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAGTGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F1773-ATGCAGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F1774-TCAGTTCCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTTCCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F1775-TGATGTCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F1776-GTAGTCTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1777-GCTACCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACCTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F1778-AGTTCGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1779-TTGACCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACCATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1780-GCTAGTACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1781-GAACAGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1782-GGTTCAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCAGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1783-GAGAGTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1784-TAGGTTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1785-TACTTGCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTTGCACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1786-GACCAGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCAGTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1787-ACTGAACCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAACCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1788-AAGCATCGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCATCGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1789-TCATCGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1790-TCAAGACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGACGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1791-GTGTTCGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTCGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1792-ACTCAGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1793-GTCACCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACCATGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F1794-CCTAGAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGAACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F1795-TCATGTGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGTGACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F1796-GACAACACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAACACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F1797-TCAGGAACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGAACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F1798-GGTACTGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F1799-ATCTGACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGACCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F1800-GAGGTCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTCAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F1801-TGTCGAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGAGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F1802-GCTTCCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCCATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F1803-ATCTGGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGGTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F1804-CTGTAGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F1805-TAGTCAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCAGCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F1806-GTACGTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGTTCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F1807-AAGGTAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTAGCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F1808-AAGCAGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F1809-TCAGTGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F1810-CATCTCACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTCACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F1811-TTCTCATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCATCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F1812-TCCAGAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F1813-ATCTACGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTACGTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F1814-ACGAGTGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F1815-ACAGTGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F1816-ACACCAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCAGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F1817-TCATGAGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAGGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F1818-ACCTCAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCAAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F1819-TGAGATCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F1820-GTCTCAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCAGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>F1821-AGGAGTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGTCGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>F1822-TCTCTGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>F1823-TCACACCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACACCAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1824-CTTGGATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGATCCTTCGTCGGCAGCGTC</t>
+    <t>F1824-CAGATCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCAAGTTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
